--- a/models/Multi_dimentional_data_covar/12_Wirtschaft_eig_1.xlsx
+++ b/models/Multi_dimentional_data_covar/12_Wirtschaft_eig_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -34,6 +39,9 @@
   </si>
   <si>
     <t>Wie beurteilen Sie Ihre eigene wirtschaftliche Lage?</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -111,14 +119,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -126,23 +134,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -181,7 +189,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,21 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:FQ381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -504,7 +512,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="3" customFormat="1">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -514,7 +522,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -522,12 +530,12 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
@@ -537,7 +545,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -548,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>33263</v>
       </c>
@@ -562,7 +573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>33403</v>
       </c>
@@ -576,7 +587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>33508</v>
       </c>
@@ -590,7 +601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>33585</v>
       </c>
@@ -604,7 +615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>33683</v>
       </c>
@@ -618,7 +629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>33774</v>
       </c>
@@ -632,7 +643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>33865</v>
       </c>
@@ -646,7 +657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="6">
         <v>33949</v>
       </c>
@@ -660,7 +671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="6">
         <v>33991</v>
       </c>
@@ -674,7 +685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="6">
         <v>34082</v>
       </c>
@@ -688,7 +699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="6">
         <v>34159</v>
       </c>
@@ -702,7 +713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" s="6">
         <v>34257</v>
       </c>
@@ -716,7 +727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="6">
         <v>34285</v>
       </c>
@@ -730,7 +741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" s="6">
         <v>34313</v>
       </c>
@@ -744,7 +755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="6">
         <v>34355</v>
       </c>
@@ -758,7 +769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="6">
         <v>34418</v>
       </c>
@@ -772,7 +783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" s="6">
         <v>34446</v>
       </c>
@@ -786,7 +797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" s="6">
         <v>34509</v>
       </c>
@@ -800,7 +811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" s="6">
         <v>34572</v>
       </c>
@@ -814,7 +825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" s="6">
         <v>34600</v>
       </c>
@@ -828,7 +839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" s="6">
         <v>34635</v>
       </c>
@@ -842,7 +853,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" s="6">
         <v>34663</v>
       </c>
@@ -856,7 +867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" s="6">
         <v>34726</v>
       </c>
@@ -870,7 +881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="6">
         <v>34817</v>
       </c>
@@ -884,7 +895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="6">
         <v>34894</v>
       </c>
@@ -898,7 +909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="6">
         <v>34985</v>
       </c>
@@ -912,7 +923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" s="6">
         <v>35048</v>
       </c>
@@ -926,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="6">
         <v>35083</v>
       </c>
@@ -940,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="6">
         <v>35111</v>
       </c>
@@ -954,7 +965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="6">
         <v>35139</v>
       </c>
@@ -968,7 +979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" s="6">
         <v>35174</v>
       </c>
@@ -982,7 +993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" s="6">
         <v>35209</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" s="6">
         <v>35237</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" s="6">
         <v>35300</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" s="6">
         <v>35356</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" s="6">
         <v>35384</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" s="6">
         <v>35412</v>
       </c>
@@ -1066,7 +1077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" s="6">
         <v>35447</v>
       </c>
@@ -1080,7 +1091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" s="6">
         <v>35482</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="B49" s="6">
         <v>35510</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="B50" s="6">
         <v>35538</v>
       </c>
@@ -1122,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5">
       <c r="B51" s="6">
         <v>35566</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="B52" s="6">
         <v>35601</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5">
       <c r="B53" s="6">
         <v>35671</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" s="6">
         <v>35699</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="B55" s="6">
         <v>35720</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5">
       <c r="B56" s="6">
         <v>35748</v>
       </c>
@@ -1206,7 +1217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5">
       <c r="B57" s="6">
         <v>35776</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5">
       <c r="B58" s="6">
         <v>35811</v>
       </c>
@@ -1234,7 +1245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5">
       <c r="B59" s="6">
         <v>35839</v>
       </c>
@@ -1248,7 +1259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5">
       <c r="B60" s="6">
         <v>35867</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5">
       <c r="B61" s="6">
         <v>35902</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5">
       <c r="B62" s="6">
         <v>35930</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5">
       <c r="B63" s="6">
         <v>35965</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5">
       <c r="B64" s="6">
         <v>35993</v>
       </c>
@@ -1318,7 +1329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5">
       <c r="B65" s="6">
         <v>36021</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5">
       <c r="B66" s="6">
         <v>36042</v>
       </c>
@@ -1346,7 +1357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5">
       <c r="B67" s="6">
         <v>36049</v>
       </c>
@@ -1360,7 +1371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5">
       <c r="B68" s="6">
         <v>36056</v>
       </c>
@@ -1374,7 +1385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5">
       <c r="B69" s="6">
         <v>36084</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5">
       <c r="B70" s="6">
         <v>36112</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5">
       <c r="B71" s="6">
         <v>36140</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5">
       <c r="B72" s="6">
         <v>36182</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5">
       <c r="B73" s="6">
         <v>36217</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5">
       <c r="B74" s="6">
         <v>36238</v>
       </c>
@@ -1458,7 +1469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5">
       <c r="B75" s="6">
         <v>36266</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5">
       <c r="B76" s="6">
         <v>36301</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5">
       <c r="B77" s="6">
         <v>36336</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5">
       <c r="B78" s="6">
         <v>36364</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5">
       <c r="B79" s="6">
         <v>36392</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5">
       <c r="B80" s="6">
         <v>36427</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5">
       <c r="B81" s="6">
         <v>36448</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5">
       <c r="B82" s="6">
         <v>36476</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5">
       <c r="B83" s="6">
         <v>36504</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5">
       <c r="B84" s="6">
         <v>36546</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5">
       <c r="B85" s="6">
         <v>36574</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5">
       <c r="B86" s="6">
         <v>36602</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5">
       <c r="B87" s="6">
         <v>36630</v>
       </c>
@@ -1640,7 +1651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5">
       <c r="B88" s="6">
         <v>36665</v>
       </c>
@@ -1654,7 +1665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5">
       <c r="B89" s="6">
         <v>36700</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5">
       <c r="B90" s="6">
         <v>36735</v>
       </c>
@@ -1682,7 +1693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5">
       <c r="B91" s="6">
         <v>36763</v>
       </c>
@@ -1696,7 +1707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5">
       <c r="B92" s="6">
         <v>36791</v>
       </c>
@@ -1710,7 +1721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5">
       <c r="B93" s="6">
         <v>36819</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5">
       <c r="B94" s="6">
         <v>36847</v>
       </c>
@@ -1738,7 +1749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5">
       <c r="B95" s="6">
         <v>36875</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5">
       <c r="B96" s="6">
         <v>36910</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5">
       <c r="B97" s="6">
         <v>36938</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5">
       <c r="B98" s="6">
         <v>36966</v>
       </c>
@@ -1794,7 +1805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5">
       <c r="B99" s="6">
         <v>36987</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5">
       <c r="B100" s="6">
         <v>37029</v>
       </c>
@@ -1822,7 +1833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5">
       <c r="B101" s="6">
         <v>37064</v>
       </c>
@@ -1836,7 +1847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5">
       <c r="B102" s="6">
         <v>37092</v>
       </c>
@@ -1850,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5">
       <c r="B103" s="6">
         <v>37127</v>
       </c>
@@ -1864,7 +1875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5">
       <c r="B104" s="6">
         <v>37148</v>
       </c>
@@ -1878,7 +1889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5">
       <c r="B105" s="6">
         <v>37176</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5">
       <c r="B106" s="6">
         <v>37211</v>
       </c>
@@ -1906,7 +1917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5">
       <c r="B107" s="6">
         <v>37239</v>
       </c>
@@ -1920,7 +1931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5">
       <c r="B108" s="6">
         <v>37274</v>
       </c>
@@ -1934,7 +1945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5">
       <c r="B109" s="6">
         <v>37309</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5">
       <c r="B110" s="6">
         <v>37337</v>
       </c>
@@ -1962,7 +1973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5">
       <c r="B111" s="6">
         <v>37372</v>
       </c>
@@ -1976,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5">
       <c r="B112" s="6">
         <v>37407</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5">
       <c r="B113" s="6">
         <v>37435</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5">
       <c r="B114" s="6">
         <v>37463</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5">
       <c r="B115" s="6">
         <v>37491</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5">
       <c r="B116" s="6">
         <v>37498</v>
       </c>
@@ -2046,7 +2057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5">
       <c r="B117" s="6">
         <v>37505</v>
       </c>
@@ -2060,7 +2071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5">
       <c r="B118" s="6">
         <v>37512</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5">
       <c r="B119" s="6">
         <v>37547</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5">
       <c r="B120" s="6">
         <v>37575</v>
       </c>
@@ -2102,7 +2113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5">
       <c r="B121" s="6">
         <v>37603</v>
       </c>
@@ -2116,7 +2127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5">
       <c r="B122" s="6">
         <v>37645</v>
       </c>
@@ -2130,7 +2141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5">
       <c r="B123" s="6">
         <v>37659</v>
       </c>
@@ -2144,7 +2155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5">
       <c r="B124" s="6">
         <v>37673</v>
       </c>
@@ -2158,7 +2169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5">
       <c r="B125" s="6">
         <v>37694</v>
       </c>
@@ -2172,7 +2183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5">
       <c r="B126" s="6">
         <v>37708</v>
       </c>
@@ -2186,7 +2197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5">
       <c r="B127" s="6">
         <v>37722</v>
       </c>
@@ -2200,7 +2211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5">
       <c r="B128" s="6">
         <v>37743</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5">
       <c r="B129" s="6">
         <v>37757</v>
       </c>
@@ -2228,7 +2239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5">
       <c r="B130" s="6">
         <v>37778</v>
       </c>
@@ -2242,7 +2253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5">
       <c r="B131" s="6">
         <v>37799</v>
       </c>
@@ -2256,7 +2267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5">
       <c r="B132" s="6">
         <v>37820</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5">
       <c r="B133" s="6">
         <v>37855</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5">
       <c r="B134" s="6">
         <v>37876</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5">
       <c r="B135" s="6">
         <v>37904</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5">
       <c r="B136" s="6">
         <v>37918</v>
       </c>
@@ -2326,7 +2337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5">
       <c r="B137" s="6">
         <v>37939</v>
       </c>
@@ -2340,7 +2351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5">
       <c r="B138" s="6">
         <v>37953</v>
       </c>
@@ -2354,7 +2365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5">
       <c r="B139" s="6">
         <v>37967</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5">
       <c r="B140" s="6">
         <v>38002</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5">
       <c r="B141" s="6">
         <v>38030</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5">
       <c r="B142" s="6">
         <v>38051</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="6">
         <v>38065</v>
       </c>
@@ -2424,7 +2435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5">
       <c r="B144" s="6">
         <v>38079</v>
       </c>
@@ -2438,7 +2449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="6">
         <v>38100</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="6">
         <v>38121</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="6">
         <v>38135</v>
       </c>
@@ -2480,7 +2491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="6">
         <v>38163</v>
       </c>
@@ -2494,7 +2505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="6">
         <v>38177</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="6">
         <v>38191</v>
       </c>
@@ -2522,7 +2533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="6">
         <v>38226</v>
       </c>
@@ -2536,7 +2547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="6">
         <v>38254</v>
       </c>
@@ -2550,7 +2561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5">
       <c r="B153" s="6">
         <v>38275</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5">
       <c r="B154" s="6">
         <v>38289</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="6">
         <v>38303</v>
       </c>
@@ -2592,7 +2603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5">
       <c r="B156" s="6">
         <v>38317</v>
       </c>
@@ -2606,7 +2617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" s="6">
         <v>38331</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5">
       <c r="B158" s="6">
         <v>38366</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="6">
         <v>38380</v>
       </c>
@@ -2648,7 +2659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="6">
         <v>38408</v>
       </c>
@@ -2662,7 +2673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5">
       <c r="B161" s="6">
         <v>38429</v>
       </c>
@@ -2676,7 +2687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5">
       <c r="B162" s="6">
         <v>38457</v>
       </c>
@@ -2690,7 +2701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5">
       <c r="B163" s="6">
         <v>38471</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5">
       <c r="B164" s="6">
         <v>38499</v>
       </c>
@@ -2718,7 +2729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5">
       <c r="B165" s="6">
         <v>38513</v>
       </c>
@@ -2732,7 +2743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5">
       <c r="B166" s="6">
         <v>38527</v>
       </c>
@@ -2746,7 +2757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5">
       <c r="B167" s="6">
         <v>38541</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5">
       <c r="B168" s="6">
         <v>38555</v>
       </c>
@@ -2774,7 +2785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5">
       <c r="B169" s="6">
         <v>38569</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5">
       <c r="B170" s="6">
         <v>38576</v>
       </c>
@@ -2802,7 +2813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5">
       <c r="B171" s="6">
         <v>38583</v>
       </c>
@@ -2816,7 +2827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5">
       <c r="B172" s="6">
         <v>38590</v>
       </c>
@@ -2830,7 +2841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5">
       <c r="B173" s="6">
         <v>38597</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5">
       <c r="B174" s="6">
         <v>38604</v>
       </c>
@@ -2858,7 +2869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5">
       <c r="B175" s="6">
         <v>38618</v>
       </c>
@@ -2872,7 +2883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5">
       <c r="B176" s="6">
         <v>38632</v>
       </c>
@@ -2886,7 +2897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5">
       <c r="B177" s="6">
         <v>38639</v>
       </c>
@@ -2900,7 +2911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5">
       <c r="B178" s="6">
         <v>38653</v>
       </c>
@@ -2914,7 +2925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5">
       <c r="B179" s="6">
         <v>38667</v>
       </c>
@@ -2928,7 +2939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5">
       <c r="B180" s="6">
         <v>38681</v>
       </c>
@@ -2942,7 +2953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5">
       <c r="B181" s="6">
         <v>38695</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5">
       <c r="B182" s="6">
         <v>38730</v>
       </c>
@@ -2970,7 +2981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5">
       <c r="B183" s="6">
         <v>38744</v>
       </c>
@@ -2984,7 +2995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5">
       <c r="B184" s="6">
         <v>38765</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5">
       <c r="B185" s="6">
         <v>38786</v>
       </c>
@@ -3012,7 +3023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5">
       <c r="B186" s="6">
         <v>38814</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5">
       <c r="B187" s="6">
         <v>38835</v>
       </c>
@@ -3040,7 +3051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5">
       <c r="B188" s="6">
         <v>38856</v>
       </c>
@@ -3054,7 +3065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5">
       <c r="B189" s="6">
         <v>38884</v>
       </c>
@@ -3068,7 +3079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5">
       <c r="B190" s="6">
         <v>38912</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5">
       <c r="B191" s="6">
         <v>38947</v>
       </c>
@@ -3096,7 +3107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5">
       <c r="B192" s="6">
         <v>38961</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5">
       <c r="B193" s="6">
         <v>38989</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5">
       <c r="B194" s="6">
         <v>39003</v>
       </c>
@@ -3138,7 +3149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5">
       <c r="B195" s="6">
         <v>39017</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5">
       <c r="B196" s="6">
         <v>39031</v>
       </c>
@@ -3166,7 +3177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5">
       <c r="B197" s="6">
         <v>39045</v>
       </c>
@@ -3180,7 +3191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5">
       <c r="B198" s="6">
         <v>39066</v>
       </c>
@@ -3194,7 +3205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5">
       <c r="B199" s="6">
         <v>39094</v>
       </c>
@@ -3208,7 +3219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5">
       <c r="B200" s="6">
         <v>39122</v>
       </c>
@@ -3222,7 +3233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5">
       <c r="B201" s="6">
         <v>39143</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5">
       <c r="B202" s="6">
         <v>39157</v>
       </c>
@@ -3250,7 +3261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5">
       <c r="B203" s="6">
         <v>39171</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5">
       <c r="B204" s="6">
         <v>39192</v>
       </c>
@@ -3278,7 +3289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5">
       <c r="B205" s="6">
         <v>39220</v>
       </c>
@@ -3292,7 +3303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5">
       <c r="B206" s="6">
         <v>39234</v>
       </c>
@@ -3306,7 +3317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5">
       <c r="B207" s="6">
         <v>39255</v>
       </c>
@@ -3320,7 +3331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5">
       <c r="B208" s="6">
         <v>39283</v>
       </c>
@@ -3334,7 +3345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5">
       <c r="B209" s="6">
         <v>39311</v>
       </c>
@@ -3348,7 +3359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5">
       <c r="B210" s="6">
         <v>39339</v>
       </c>
@@ -3362,7 +3373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5">
       <c r="B211" s="6">
         <v>39360</v>
       </c>
@@ -3376,7 +3387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5">
       <c r="B212" s="6">
         <v>39374</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5">
       <c r="B213" s="6">
         <v>39395</v>
       </c>
@@ -3404,7 +3415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5">
       <c r="B214" s="6">
         <v>39409</v>
       </c>
@@ -3418,7 +3429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5">
       <c r="B215" s="6">
         <v>39440</v>
       </c>
@@ -3432,7 +3443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5">
       <c r="B216" s="6">
         <v>39458</v>
       </c>
@@ -3446,7 +3457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5">
       <c r="B217" s="6">
         <v>39486</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5">
       <c r="B218" s="6">
         <v>39507</v>
       </c>
@@ -3474,7 +3485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5">
       <c r="B219" s="6">
         <v>39521</v>
       </c>
@@ -3488,7 +3499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5">
       <c r="B220" s="6">
         <v>39542</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5">
       <c r="B221" s="6">
         <v>39556</v>
       </c>
@@ -3516,7 +3527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5">
       <c r="B222" s="6">
         <v>39577</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5">
       <c r="B223" s="6">
         <v>39598</v>
       </c>
@@ -3544,7 +3555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5">
       <c r="B224" s="6">
         <v>39612</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5">
       <c r="B225" s="6">
         <v>39640</v>
       </c>
@@ -3572,7 +3583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5">
       <c r="B226" s="6">
         <v>39675</v>
       </c>
@@ -3586,7 +3597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5">
       <c r="B227" s="6">
         <v>39703</v>
       </c>
@@ -3600,7 +3611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5">
       <c r="B228" s="6">
         <v>39731</v>
       </c>
@@ -3614,7 +3625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5">
       <c r="B229" s="6">
         <v>39745</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5">
       <c r="B230" s="6">
         <v>39759</v>
       </c>
@@ -3642,7 +3653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5">
       <c r="B231" s="6">
         <v>39773</v>
       </c>
@@ -3656,7 +3667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5">
       <c r="B232" s="6">
         <v>39794</v>
       </c>
@@ -3670,7 +3681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5">
       <c r="B233" s="6">
         <v>39822</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5">
       <c r="B234" s="6">
         <v>39843</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5">
       <c r="B235" s="6">
         <v>39857</v>
       </c>
@@ -3712,7 +3723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5">
       <c r="B236" s="6">
         <v>39878</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5">
       <c r="B237" s="6">
         <v>39899</v>
       </c>
@@ -3740,7 +3751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5">
       <c r="B238" s="6">
         <v>39927</v>
       </c>
@@ -3754,7 +3765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5">
       <c r="B239" s="6">
         <v>39941</v>
       </c>
@@ -3768,7 +3779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5">
       <c r="B240" s="6">
         <v>39962</v>
       </c>
@@ -3782,7 +3793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5">
       <c r="B241" s="6">
         <v>39976</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5">
       <c r="B242" s="6">
         <v>39997</v>
       </c>
@@ -3810,7 +3821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5">
       <c r="B243" s="6">
         <v>40018</v>
       </c>
@@ -3824,7 +3835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5">
       <c r="B244" s="6">
         <v>40032</v>
       </c>
@@ -3838,7 +3849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5">
       <c r="B245" s="6">
         <v>40046</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5">
       <c r="B246" s="6">
         <v>40053</v>
       </c>
@@ -3866,7 +3877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5">
       <c r="B247" s="6">
         <v>40060</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5">
       <c r="B248" s="6">
         <v>40067</v>
       </c>
@@ -3894,7 +3905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5">
       <c r="B249" s="6">
         <v>40074</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5">
       <c r="B250" s="6">
         <v>40088</v>
       </c>
@@ -3922,7 +3933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5">
       <c r="B251" s="6">
         <v>40102</v>
       </c>
@@ -3936,7 +3947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5">
       <c r="B252" s="6">
         <v>40116</v>
       </c>
@@ -3950,7 +3961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5">
       <c r="B253" s="6">
         <v>40144</v>
       </c>
@@ -3964,7 +3975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5">
       <c r="B254" s="6">
         <v>40158</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5">
       <c r="B255" s="6">
         <v>40193</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5">
       <c r="B256" s="6">
         <v>40207</v>
       </c>
@@ -4006,7 +4017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5">
       <c r="B257" s="6">
         <v>40225</v>
       </c>
@@ -4020,7 +4031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5">
       <c r="B258" s="6">
         <v>40249</v>
       </c>
@@ -4034,7 +4045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5">
       <c r="B259" s="6">
         <v>40263</v>
       </c>
@@ -4048,7 +4059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:5">
       <c r="B260" s="6">
         <v>40291</v>
       </c>
@@ -4062,7 +4073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5">
       <c r="B261" s="6">
         <v>40319</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5">
       <c r="B262" s="6">
         <v>40333</v>
       </c>
@@ -4090,7 +4101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5">
       <c r="B263" s="6">
         <v>40347</v>
       </c>
@@ -4104,7 +4115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5">
       <c r="B264" s="6">
         <v>40375</v>
       </c>
@@ -4118,7 +4129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5">
       <c r="B265" s="6">
         <v>40417</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5">
       <c r="B266" s="6">
         <v>40431</v>
       </c>
@@ -4146,7 +4157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:5">
       <c r="B267" s="6">
         <v>40445</v>
       </c>
@@ -4160,7 +4171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5">
       <c r="B268" s="6">
         <v>40452</v>
       </c>
@@ -4174,7 +4185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5">
       <c r="B269" s="6">
         <v>40473</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5">
       <c r="B270" s="6">
         <v>40494</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5">
       <c r="B271" s="6">
         <v>40515</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5">
       <c r="B272" s="6">
         <v>40529</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="273" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:173">
       <c r="B273" s="6">
         <v>40557</v>
       </c>
@@ -4244,7 +4255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:173">
       <c r="B274" s="6">
         <v>40571</v>
       </c>
@@ -4258,7 +4269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:173">
       <c r="B275" s="6">
         <v>40585</v>
       </c>
@@ -4272,7 +4283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="276" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:173">
       <c r="B276" s="6">
         <v>40599</v>
       </c>
@@ -4286,7 +4297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:173">
       <c r="B277" s="6">
         <v>40634</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:173">
       <c r="B278" s="6">
         <v>40648</v>
       </c>
@@ -4314,7 +4325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:173">
       <c r="B279" s="6">
         <v>40669</v>
       </c>
@@ -4328,7 +4339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:173">
       <c r="B280" s="6">
         <v>40690</v>
       </c>
@@ -4342,7 +4353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="281" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:173">
       <c r="B281" s="6">
         <v>40704</v>
       </c>
@@ -4356,7 +4367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:173">
       <c r="B282" s="6">
         <v>40739</v>
       </c>
@@ -4370,7 +4381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:173">
       <c r="B283" s="6">
         <v>40767</v>
       </c>
@@ -4384,7 +4395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="284" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:173">
       <c r="B284" s="6">
         <v>40795</v>
       </c>
@@ -4398,7 +4409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:173">
       <c r="B285" s="6">
         <v>40809</v>
       </c>
@@ -4412,7 +4423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:173">
       <c r="B286" s="6">
         <v>40830</v>
       </c>
@@ -4426,7 +4437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="287" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:173">
       <c r="B287" s="6">
         <v>40844</v>
       </c>
@@ -4452,7 +4463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="2:173" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:173">
       <c r="B288" s="6">
         <v>40858</v>
       </c>
@@ -4478,7 +4489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5">
       <c r="B289" s="6">
         <v>40872</v>
       </c>
@@ -4492,7 +4503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5">
       <c r="B290" s="6">
         <v>40893</v>
       </c>
@@ -4506,7 +4517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5">
       <c r="B291" s="6">
         <v>40921</v>
       </c>
@@ -4520,7 +4531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:5">
       <c r="B292" s="6">
         <v>40935</v>
       </c>
@@ -4534,7 +4545,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5">
       <c r="B293" s="6">
         <v>40949</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5">
       <c r="B294" s="6">
         <v>40977</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5">
       <c r="B295" s="6">
         <v>40998</v>
       </c>
@@ -4576,7 +4587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:5">
       <c r="B296" s="6">
         <v>41026</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5">
       <c r="B297" s="6">
         <v>41054</v>
       </c>
@@ -4604,7 +4615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5">
       <c r="B298" s="6">
         <v>41075</v>
       </c>
@@ -4618,7 +4629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5">
       <c r="B299" s="6">
         <v>41103</v>
       </c>
@@ -4632,7 +4643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" s="5" customFormat="1">
       <c r="B300" s="6">
         <v>41145</v>
       </c>
@@ -4646,7 +4657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" s="5" customFormat="1">
       <c r="B301" s="6">
         <v>41166</v>
       </c>
@@ -4660,7 +4671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5">
       <c r="B302" s="8">
         <v>41180</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5">
       <c r="B303" s="8">
         <v>41193</v>
       </c>
@@ -4688,7 +4699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5">
       <c r="B304" s="8">
         <v>41208</v>
       </c>
@@ -4702,7 +4713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5">
       <c r="B305" s="8">
         <v>41229</v>
       </c>
@@ -4716,7 +4727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5">
       <c r="B306" s="10">
         <v>41243</v>
       </c>
@@ -4730,7 +4741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5">
       <c r="B307" s="10">
         <v>41257</v>
       </c>
@@ -4744,7 +4755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5">
       <c r="B308" s="10">
         <v>41285</v>
       </c>
@@ -4758,7 +4769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5">
       <c r="B309" s="10">
         <v>41299</v>
       </c>
@@ -4772,7 +4783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5">
       <c r="B310" s="10">
         <v>41327</v>
       </c>
@@ -4786,7 +4797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5">
       <c r="B311" s="10">
         <v>41341</v>
       </c>
@@ -4800,7 +4811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5">
       <c r="B312" s="10">
         <v>41355</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5">
       <c r="B313" s="10">
         <v>41376</v>
       </c>
@@ -4828,7 +4839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5">
       <c r="B314" s="10">
         <v>41390</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5">
       <c r="B315" s="10">
         <v>41411</v>
       </c>
@@ -4856,7 +4867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5">
       <c r="B316" s="10">
         <v>41432</v>
       </c>
@@ -4870,7 +4881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5">
       <c r="B317" s="10">
         <v>41453</v>
       </c>
@@ -4884,7 +4895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5">
       <c r="B318" s="10">
         <v>41467</v>
       </c>
@@ -4898,7 +4909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5">
       <c r="B319" s="10">
         <v>41488</v>
       </c>
@@ -4912,7 +4923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5">
       <c r="B320" s="10">
         <v>41502</v>
       </c>
@@ -4926,7 +4937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5">
       <c r="B321" s="10">
         <v>41509</v>
       </c>
@@ -4940,7 +4951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5">
       <c r="B322" s="10">
         <v>41515</v>
       </c>
@@ -4954,7 +4965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5">
       <c r="B323" s="10">
         <v>41522</v>
       </c>
@@ -4968,7 +4979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="324" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:5" s="12" customFormat="1">
       <c r="B324" s="6">
         <v>41530</v>
       </c>
@@ -4982,7 +4993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5">
       <c r="B325" s="10">
         <v>41544</v>
       </c>
@@ -4996,7 +5007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:5">
       <c r="B326" s="10">
         <v>41565</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5">
       <c r="B327" s="10">
         <v>41586</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:5">
       <c r="B328" s="10">
         <v>41607</v>
       </c>
@@ -5038,7 +5049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:5">
       <c r="B329" s="10">
         <v>41621</v>
       </c>
@@ -5052,7 +5063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:5">
       <c r="B330" s="4">
         <v>41656</v>
       </c>
@@ -5066,7 +5077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:5">
       <c r="B331" s="10">
         <v>41670</v>
       </c>
@@ -5080,7 +5091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:5">
       <c r="B332" s="10">
         <v>41691</v>
       </c>
@@ -5094,7 +5105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:5">
       <c r="B333" s="4">
         <v>41712</v>
       </c>
@@ -5108,7 +5119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:5">
       <c r="B334" s="4">
         <v>41726</v>
       </c>
@@ -5122,7 +5133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:5">
       <c r="B335" s="10">
         <v>41740</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:5">
       <c r="B336" s="10">
         <v>41768</v>
       </c>
@@ -5150,7 +5161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5">
       <c r="B337" s="10">
         <v>41795</v>
       </c>
@@ -5164,7 +5175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5">
       <c r="B338" s="10">
         <v>41817</v>
       </c>
@@ -5178,7 +5189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5">
       <c r="B339" s="10">
         <v>41838</v>
       </c>
@@ -5192,7 +5203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5">
       <c r="B340" s="10">
         <v>41873</v>
       </c>
@@ -5206,7 +5217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5">
       <c r="B341" s="10">
         <v>41887</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5">
       <c r="B342" s="10">
         <v>41908</v>
       </c>
@@ -5234,7 +5245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5">
       <c r="B343" s="10">
         <v>41922</v>
       </c>
@@ -5248,7 +5259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5">
       <c r="B344" s="10">
         <v>41936</v>
       </c>
@@ -5262,7 +5273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5">
       <c r="B345" s="10">
         <v>41957</v>
       </c>
@@ -5276,7 +5287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5">
       <c r="B346" s="10">
         <v>41971</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5">
       <c r="B347" s="10">
         <v>41985</v>
       </c>
@@ -5304,7 +5315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5">
       <c r="B348" s="10">
         <v>42020</v>
       </c>
@@ -5318,7 +5329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5">
       <c r="B349" s="10">
         <v>42034</v>
       </c>
@@ -5332,7 +5343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5">
       <c r="B350" s="10">
         <v>42062</v>
       </c>
@@ -5346,7 +5357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5">
       <c r="B351" s="10">
         <v>42076</v>
       </c>
@@ -5360,7 +5371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5">
       <c r="B352" s="10">
         <v>42090</v>
       </c>
@@ -5374,7 +5385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:5">
       <c r="B353" s="10">
         <v>42111</v>
       </c>
@@ -5388,7 +5399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:5">
       <c r="B354" s="10">
         <v>42146</v>
       </c>
@@ -5402,7 +5413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:5">
       <c r="B355" s="10">
         <v>42167</v>
       </c>
@@ -5416,7 +5427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:5">
       <c r="B356" s="10">
         <v>42188</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:5">
       <c r="B357" s="10">
         <v>42209</v>
       </c>
@@ -5444,7 +5455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:5">
       <c r="B358" s="4">
         <v>42237</v>
       </c>
@@ -5458,7 +5469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:5">
       <c r="B359" s="10">
         <v>42258</v>
       </c>
@@ -5472,7 +5483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:5">
       <c r="B360" s="6">
         <v>42272</v>
       </c>
@@ -5486,7 +5497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:5">
       <c r="B361" s="10">
         <v>42286</v>
       </c>
@@ -5500,7 +5511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:5">
       <c r="B362" s="10">
         <v>42300</v>
       </c>
@@ -5514,7 +5525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:5">
       <c r="B363" s="10">
         <v>42321</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:5">
       <c r="B364" s="10">
         <v>42335</v>
       </c>
@@ -5542,7 +5553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:5">
       <c r="B365" s="10">
         <v>42349</v>
       </c>
@@ -5556,7 +5567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:5">
       <c r="B366" s="10">
         <v>42384</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:5">
       <c r="B367" s="10">
         <v>42419</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:5">
       <c r="B368" s="10">
         <v>42447</v>
       </c>
@@ -5598,7 +5609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:5">
       <c r="B369" s="10">
         <v>42468</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:5">
       <c r="B370" s="10">
         <v>42503</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:5">
       <c r="B371" s="10">
         <v>42524</v>
       </c>
@@ -5640,7 +5651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:5">
       <c r="B372" s="10">
         <v>42573</v>
       </c>
@@ -5654,7 +5665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:5">
       <c r="B373" s="10">
         <v>42594</v>
       </c>
@@ -5668,7 +5679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:5">
       <c r="B374" s="10">
         <v>42636</v>
       </c>
@@ -5682,7 +5693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:5">
       <c r="B375" s="10">
         <v>42657</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:5">
       <c r="B376" s="10">
         <v>42685</v>
       </c>
@@ -5710,7 +5721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:5">
       <c r="B377" s="10">
         <v>42713</v>
       </c>
@@ -5724,7 +5735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:5">
       <c r="B378" s="10">
         <v>42748</v>
       </c>
@@ -5738,7 +5749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:5">
       <c r="B379" s="4">
         <v>42783</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:5">
       <c r="B380" s="10">
         <v>42804</v>
       </c>
@@ -5766,7 +5777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:5">
       <c r="B381" s="10">
         <v>42832</v>
       </c>
@@ -5789,35 +5800,50 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle3"/>
+  <sheetPr codeName="Tabelle3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>